--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_38.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2502067.751968648</v>
+        <v>2559636.065364885</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17298407.14104212</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484439</v>
+        <v>278692.0725916857</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5108280.03043285</v>
+        <v>5172436.019533925</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>322.9150052587256</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>286.2721000371768</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>84.53123883647797</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
         <v>41.31829566194965</v>
@@ -820,16 +820,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>40.34784561218939</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>264.3954324138166</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>246.9498209222074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>40.81543798167388</v>
       </c>
       <c r="D7" t="n">
-        <v>152.355512532834</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
-        <v>74.44188079972334</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.5591556145158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>15.26172243950674</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561535</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1546,7 +1546,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>102.6974459740365</v>
       </c>
       <c r="U13" t="n">
-        <v>240.9739924675004</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>429.436997393288</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>98.48969899663956</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1825,10 +1825,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>219.657056181682</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2005,10 +2005,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>102.8562685532385</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,10 +2062,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>212.9450041785558</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2087,7 +2087,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170453</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,13 +2296,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>139.9514671241869</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2318,7 +2318,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.761048088418</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2482,16 +2482,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170543</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>115.1105674615477</v>
       </c>
     </row>
     <row r="26">
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,13 +2770,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>161.1551102058696</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225762</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.3942785639456</v>
+        <v>400.8069000430777</v>
       </c>
       <c r="X35" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.4878110526658</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.5273620187299</v>
+        <v>137.474888633861</v>
       </c>
       <c r="G37" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>152.6805156286983</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>285.8262315320845</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.40273359886996</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.5227407452992</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>26.24351759540797</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H41" t="n">
-        <v>247.0616079459125</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4539333765604</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>163.8065913913611</v>
+        <v>90.59002589087447</v>
       </c>
       <c r="E43" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.5273620187299</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.5227407452992</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>26.2435175954073</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>283.6733315691424</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>421.6239533009273</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.3484266092795</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.1380654981685</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.0243759141563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.1761338157529</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.9712315838373</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>285.8262315320845</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>28.87953640372194</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.2174581770219</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.5781590863803</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.3942785639456</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.538417307351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>403.7906409842117</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4132,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.4878110526658</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.4234729224759</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>163.8065913913611</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>167.6478022326387</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.5273620187299</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>32.52992480485536</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.2363335358519</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>243.0080304781979</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.2360492602943</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>283.6733315691424</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W46" t="n">
-        <v>268.89351889044</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.5252156407903</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.7328524999014</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.4764845146214</v>
+        <v>1350.843827503015</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>922.2621532402836</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>890.3927724551322</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
         <v>33.94366860160834</v>
@@ -4331,25 +4331,25 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="P2" t="n">
-        <v>1528.02936532736</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4364,16 +4364,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.019692669128</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.204642120565</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>988.0621786998757</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>579.7760549995292</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.5053801183834</v>
+        <v>759.3171124883345</v>
       </c>
       <c r="C4" t="n">
-        <v>33.94366860160834</v>
+        <v>586.7554009715594</v>
       </c>
       <c r="D4" t="n">
-        <v>33.94366860160834</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1235.38760622724</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4510,28 +4510,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>1430.117336733128</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1143.161828603558</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="W4" t="n">
-        <v>871.1354241898498</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="X4" t="n">
-        <v>625.7436695232623</v>
+        <v>951.1357312073217</v>
       </c>
       <c r="Y4" t="n">
-        <v>398.3239988373705</v>
+        <v>951.1357312073217</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>2032.928509558224</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1998.826440782051</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1562.916655956496</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>1129.141911114791</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>701.2744815239985</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>299.8766501472624</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>557.764910672645</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657692</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2075.350505591518</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2074.535455042955</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2059.43339566267</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>2055.187676002728</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>1224.671464618085</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>1224.671464618085</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>1224.671464618085</v>
+        <v>431.6596472970917</v>
       </c>
       <c r="P6" t="n">
-        <v>1224.671464618085</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>187.8381257054811</v>
+        <v>998.1565508175872</v>
       </c>
       <c r="C7" t="n">
-        <v>187.8381257054811</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>2221.768507432332</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1934.812999302762</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1662.786594889054</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1417.394840222466</v>
       </c>
       <c r="Y7" t="n">
-        <v>187.8381257054811</v>
+        <v>1189.975169536574</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>874.0494664914149</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1075.344177331261</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>670.4887227422939</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>251.3462593216046</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.1524403319851</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1224.671464618085</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>454.6477016666967</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>209.2559470001092</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.2559470001092</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2249.599768769384</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1811.457295952807</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1375.547511127252</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>941.7727662855468</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>513.9053366947546</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>112.5075053180185</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>97.09162406599151</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>400.1890843301844</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1234.539376288362</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2309.599342541222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2309.599342541222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2309.599342541222</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O11" t="n">
-        <v>3289.779009111528</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P11" t="n">
-        <v>4118.088883944924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q11" t="n">
-        <v>4664.587669903519</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R11" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4750.089860840412</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4530.022633713451</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4270.800331030468</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3908.183380964294</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3503.327926375327</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3084.185462954638</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2675.899339254292</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1087.073046079688</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>914.5113345629128</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>748.6333417644355</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>578.8753380151727</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>402.1682839769293</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>236.577009002757</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>96.67483469313152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.2545198578214</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.012974428957</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2228561969181</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1777.965526535476</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S13" t="n">
-        <v>2554.093075893928</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2554.093075893928</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U13" t="n">
-        <v>2310.685002694432</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V13" t="n">
-        <v>2023.729494564863</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.703090151154</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.311335484567</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.891664798675</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2333.251642585547</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1895.10916976897</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1459.199384943415</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1025.42464010171</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>597.5572105109177</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>196.1593791341816</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9295221460494</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1366.279814104227</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2309.599342541222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2309.599342541222</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2309.599342541222</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O14" t="n">
-        <v>3289.779009111528</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.088883944924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q14" t="n">
-        <v>4664.587669903519</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>4833.741734656575</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4833.741734656575</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4613.674507529614</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4354.452204846631</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3991.835254780457</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3586.979800191491</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3167.837336770801</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2759.551213070455</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.8465796844243</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.3901185210666</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.2998296676199</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.1794149945736</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.7955766107352</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.410486876919</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7385078535891</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.2968328198015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.002879445525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.002879445525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.741818077601</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.914596171941</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.459158620323</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.280514950925</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.943967950893</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.826450012893</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.503695746087</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6362599849667</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.1504807641875</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.1708717700631</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6091602532878</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7311674548105</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>438.9731637055477</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>262.2661096673039</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>96.67483469313152</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>96.67483469313152</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.67483469313152</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.2545198578212</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0129744289568</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2228561969179</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.706723377831</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.965526535475</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.634775761257</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.141669731599</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.334444595931</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.334444595931</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2695.095275553247</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2449.215829131702</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2170.782828384808</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1883.827320255238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1611.80091584153</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X16" t="n">
-        <v>1366.409161174942</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.98949048905</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2458.140693487467</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2019.998220670891</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1584.088435845335</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1150.31369100363</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>722.4462614128379</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>321.0484300361018</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>99.17261571116991</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>99.17261571116991</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>534.4273031640879</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.777595122266</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2434.488393443142</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2434.488393443142</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2434.488393443142</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3414.668060013448</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4242.977934846844</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4789.476720805439</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4958.630785558496</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4958.630785558496</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4738.563558431534</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4479.341255748551</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4116.724305682377</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3711.868851093411</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3292.726387672722</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2884.440263972375</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>605.3443607024627</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.887899539105</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.7976106856582</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.6771960126119</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>226.2933576287735</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.9082678949574</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>99.17261571116991</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>125.2362888716275</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.7946138378398</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1104.500660463563</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1645.239599095639</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1762.412377189979</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.956939638362</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.778295968963</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1392.441748968932</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1193.324231030931</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1008.001476764125</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>853.1340410030051</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.6482617822259</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.4900005361582</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>773.9282890193831</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>773.9282890193831</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>670.0330682585362</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>493.3260142202924</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>327.7347392461201</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>187.8325649364946</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>99.17261571116991</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.7523008758598</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>460.5107554469953</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.7206372149564</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1338.204504395869</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1780.463307553514</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2200.132556779295</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.639450749637</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.83222561397</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2694.414404319342</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2694.414404319342</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2448.534957897797</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.101957150902</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.146449021333</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.120044607625</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.728289941037</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.308619255145</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5750,52 +5750,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883917</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716166</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731393</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238765</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856327</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.992967093271</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2528.900047651796</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C23" t="n">
         <v>2090.757574835212</v>
@@ -5975,64 +5975,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707798</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.773653488288</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698839</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705593</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538989</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538989</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538989</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722826</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595864</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
-        <v>4550.100609912881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V23" t="n">
-        <v>4187.483659846706</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.62820525774</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
-        <v>3363.485741837051</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136704</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620726</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987149</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>406.8858352452681</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722218</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883834</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545673</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312374</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974497</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
         <v>1107.588885023173</v>
@@ -6090,16 +6090,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749589</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197972</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528542</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
         <v>1196.412455590541</v>
@@ -6108,10 +6108,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>856.222265562615</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418358</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883927</v>
+        <v>922.9010479080736</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716176</v>
+        <v>750.3393363912985</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731403</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238775</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856338</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707798</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707798</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354696</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>463.5989800066052</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
         <v>1341.292728955479</v>
@@ -6175,22 +6175,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.57329640738</v>
+        <v>1114.719666627061</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1763.340229889428</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6470,16 +6470,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4729.704604581732</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4729.704604581732</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
         <v>267.852115244952</v>
@@ -6622,7 +6622,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
         <v>2090.757574835212</v>
@@ -6686,64 +6686,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2525.85493345824</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.636254561828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>390.8466168711748</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.133251687251</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.483543645429</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1625.943273563808</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1625.943273563808</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2751.674257000255</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3731.853923570562</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4560.163798403958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5106.662584362552</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4803.777062165148</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4544.971548855025</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4182.771388161711</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3778.332722945604</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3359.607048897775</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2951.737714570288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>950.5453418998815</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C37" t="n">
-        <v>778.4004197559673</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D37" t="n">
-        <v>612.93921633035</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E37" t="n">
-        <v>443.5980019539472</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F37" t="n">
-        <v>267.3077372885634</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.133251687251</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>464.2883819517562</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>882.9067589840571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2205.544164341416</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2553.459553576098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2722.06082370477</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2722.06082370477</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2563.236244375627</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2317.773587326943</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2039.757375952908</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1885.534632893616</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.925017852768</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1368.95005255904</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1141.947171246009</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2525.854933458241</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2088.129250014524</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.636254561829</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1219.278299092983</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>791.8276588750509</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>390.8466168711749</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.133251687251</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.3879391401689</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.738231098347</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.798197351206</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.798197351206</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2582.520192247199</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3562.699858817505</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4391.009733650902</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4937.508519609496</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5106.662584362552</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5023.427499919249</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4803.777062165149</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4544.971548855026</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4182.771388161712</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3778.332722945605</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3359.607048897776</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2951.737714570289</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.3049966785438</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.8485355151861</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>406.7582466617394</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>312.6378319886931</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>229.2539936048547</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.8689038710386</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.1969248477087</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>452.755249813921</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.461296439645</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.20023507172</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.37301316606</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1701.917575614443</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.738931945045</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.402384945013</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.284867007012</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1010.962112740206</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.0946769790862</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.608897758307</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.5453418998824</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C40" t="n">
-        <v>778.4004197559673</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D40" t="n">
-        <v>612.93921633035</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E40" t="n">
-        <v>443.5980019539472</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F40" t="n">
-        <v>267.3077372885634</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.133251687251</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>189.121432116281</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>464.2883819517562</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>882.9067589840571</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1342.79912142931</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.466419851295</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2205.544164341416</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2553.459553576098</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2722.06082370477</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2722.06082370477</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2695.552220073047</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2450.089563024362</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2172.073351650327</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1885.534632893617</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.925017852769</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X40" t="n">
-        <v>1368.950052559041</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1141.947171246009</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2484.200966999624</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2046.475283555907</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1610.982288103211</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1177.624332634367</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>750.1736924164346</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>349.1926504125586</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>99.63547066921265</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>99.63547066921265</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>534.8901581221305</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1369.240450080308</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2444.300416333168</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.631141345279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3437.810807915585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4266.120682748981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4812.619468707576</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4981.773533460632</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4981.773533460632</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4762.123095706531</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4503.317582396407</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4141.117421703094</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3736.678756486987</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3317.953082439158</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2910.083748111671</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>605.8072156605054</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>499.3507544971477</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>404.260465643701</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.1400509706547</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>226.7562125868163</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>141.3711228530002</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>99.63547066921265</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>125.6991438296703</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>450.2574687958826</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1104.963515421606</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1645.702454053682</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1762.875232148021</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1699.419794596404</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1569.241150927006</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1392.904603926974</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1193.787085988974</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1008.464331722168</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>853.5968959610478</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.1111167402686</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.047560881844</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>775.9026387379289</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>610.4414353123116</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E43" t="n">
-        <v>441.1002209359088</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F43" t="n">
-        <v>264.809956270525</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>99.63547066921265</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>99.63547066921265</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>99.63547066921265</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.6236510982426</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7906009337183</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>880.4089779660194</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1340.301340411273</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1782.968638833257</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.046383323379</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.961772558061</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2719.563042686733</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2719.563042686733</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2693.054439055008</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2447.591782006323</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2169.575570632289</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1883.036851875579</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1611.427236834731</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1366.452271541003</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1139.449390227971</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2520.268927880593</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2082.543244436876</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1647.050248984181</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1213.692293515335</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>786.241653297403</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>385.2606112935269</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>96.54724610960295</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.54724610960295</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.8019335625208</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.152225520699</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.212191773559</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.212191773559</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2441.212191773559</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3283.3995799351</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4111.709454768496</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.208240727091</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4827.362305480147</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4798.1910565875</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4798.1910565875</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4539.385543277377</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4177.185382584064</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3772.746717367957</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3354.021043320128</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2946.151708992641</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.7189911008958</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.262529937538</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.1722410840913</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.051826411045</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.6679880272066</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.2828982933905</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.54724610960295</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.6109192700606</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.1692442362729</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1101.875290861997</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.614229494072</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.787007588412</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.331570036795</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.152926367397</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1389.816379367365</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.698861429364</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.376107162558</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.5086714014382</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.0228921806589</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>812.643360624816</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>640.4984384809009</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>475.0372350552836</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>305.6960206788808</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>129.405756013497</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.54724610960295</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.54724610960295</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.54724610960295</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.5354265386326</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.7023763741082</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>877.3207534064094</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1337.213115851662</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1779.880414273647</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2199.958158763769</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2547.873547998451</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2716.474818127123</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2557.65023879798</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2312.187581749295</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2034.17137037526</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1747.632651618551</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.023036577702</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1231.048071283975</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1004.045189970943</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,13 +7979,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,13 +7994,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611115</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8380,16 +8380,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.074976719111</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8468,13 +8468,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>306.5800501384373</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>952.8480085222166</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,13 +9167,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859471</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9638,16 +9638,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318268</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9656,10 +9656,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -10118,19 +10118,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,19 +10583,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>696.4239696145246</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880011238</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,13 +11303,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>850.6943314763048</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>270.9771305717092</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>140.7232059832928</v>
       </c>
       <c r="U13" t="n">
-        <v>34.67467827192533</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.7491540145763</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>117.7661826744373</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>66.58179682953391</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>65.20415515853159</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>56.36113619101559</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24184,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.0349065174851</v>
       </c>
     </row>
     <row r="26">
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24658,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>81.78272691405201</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627257</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37.46509486400032</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.9928159404441</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H40" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>130.9928159404439</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>38.76462358617197</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.40273359886996</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>73.62918697961427</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.36072825394001</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>20.79102160255044</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>130.9928159404446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.52319719514801</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4539333765604</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.9928159404438</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.0905310873978</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.36072825394001</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>20.79102160255044</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>441182.1491030292</v>
+        <v>445409.5899107876</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>441182.1491030292</v>
+        <v>446170.7499260961</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>430007.6033199975</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>430007.6033199975</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>438215.5782559832</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448363.813669302</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448527.5547493862</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448527.5547493862</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>440319.5798134005</v>
+        <v>448363.813669302</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>430171.3444000818</v>
+        <v>448363.8136693019</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="C2" t="n">
         <v>509339.9538958882</v>
       </c>
       <c r="D2" t="n">
-        <v>509339.9538958882</v>
+        <v>509339.9538958881</v>
       </c>
       <c r="E2" t="n">
-        <v>480023.414316652</v>
+        <v>500514.7049304849</v>
       </c>
       <c r="F2" t="n">
-        <v>480023.4143166522</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="G2" t="n">
-        <v>489186.089866985</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="H2" t="n">
         <v>500514.7049304848</v>
       </c>
       <c r="I2" t="n">
-        <v>500514.7049304848</v>
+        <v>500514.7049304847</v>
       </c>
       <c r="J2" t="n">
         <v>500514.7049304848</v>
@@ -26344,16 +26344,16 @@
         <v>500514.7049304848</v>
       </c>
       <c r="M2" t="n">
-        <v>500738.9936869255</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="N2" t="n">
-        <v>500738.9936869254</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="O2" t="n">
-        <v>491576.3181365926</v>
+        <v>500514.7049304848</v>
       </c>
       <c r="P2" t="n">
-        <v>480247.7030730929</v>
+        <v>500514.7049304849</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
-        <v>234126.826365935</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8557.553879113184</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>10415.38475254666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.441709163278574e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449897</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
-        <v>195343.3712995836</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.861628258540616e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,25 +26418,25 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955547</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>26550.68047546983</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>26550.68047546983</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27057.47923482537</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
+        <v>27684.07875020263</v>
+      </c>
+      <c r="I4" t="n">
         <v>27684.07875020268</v>
-      </c>
-      <c r="I4" t="n">
-        <v>27684.07875020239</v>
       </c>
       <c r="J4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26448,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>28075.16394942166</v>
+        <v>27684.07875020265</v>
       </c>
       <c r="N4" t="n">
-        <v>28075.16394942166</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27568.36519006612</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="P4" t="n">
-        <v>26941.76567468881</v>
+        <v>27684.07875020263</v>
       </c>
     </row>
     <row r="5">
@@ -26470,25 +26470,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73472.87436677994</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>75371.18794048912</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579262</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77655.9599574399</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>75757.64638373071</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73410.59571842734</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>126291.4786384937</v>
+        <v>126291.4786384936</v>
       </c>
       <c r="C6" t="n">
-        <v>268482.7792982038</v>
+        <v>232306.6743973148</v>
       </c>
       <c r="D6" t="n">
-        <v>268482.7792982038</v>
+        <v>292842.5335521278</v>
       </c>
       <c r="E6" t="n">
-        <v>145873.0331084672</v>
+        <v>212734.0540140574</v>
       </c>
       <c r="F6" t="n">
-        <v>379999.8594744024</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="G6" t="n">
-        <v>378199.8688125573</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="H6" t="n">
-        <v>384697.002821943</v>
+        <v>395089.163235107</v>
       </c>
       <c r="I6" t="n">
-        <v>395112.3875744893</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="J6" t="n">
-        <v>284097.9222294998</v>
+        <v>284074.6978901167</v>
       </c>
       <c r="K6" t="n">
-        <v>395112.3875744896</v>
+        <v>342043.3085963344</v>
       </c>
       <c r="L6" t="n">
-        <v>395112.3875744896</v>
+        <v>385696.8615084846</v>
       </c>
       <c r="M6" t="n">
-        <v>199664.4984804803</v>
+        <v>242888.9922971193</v>
       </c>
       <c r="N6" t="n">
-        <v>395007.8697800639</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="O6" t="n">
-        <v>388250.3065627958</v>
+        <v>395089.1632351069</v>
       </c>
       <c r="P6" t="n">
-        <v>379895.3416799767</v>
+        <v>395089.1632351071</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26790,25 +26790,25 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1208.435433664144</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1239.657696389624</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
       </c>
       <c r="I4" t="n">
-        <v>1278.260503384747</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="J4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.665646090638</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1245.443383365158</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1206.840576370037</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>31.22226272547999</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>38.60280699512123</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201026</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>782.5447188499322</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>784.1395761440394</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>31.22226272547999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>38.60280699512123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>99.12156952133313</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>72.71868052833491</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27540,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>123.8713672583031</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>11.25323832560906</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>39.28903208900849</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,16 +27673,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>130.0206564199334</v>
       </c>
       <c r="D7" t="n">
-        <v>11.86370033765851</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
-        <v>329.7613816636198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.34127691728142</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -28023,13 +28023,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>7.54122690220053e-13</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.185683269527101e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.030283888476744e-12</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4126214791313976</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4126214791313976</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,13 +34699,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34714,13 +34714,13 @@
         <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,7 +34793,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>223.4729892007681</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>296.5687363523682</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611115</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="Q6" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.074976719111</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35188,13 +35188,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.9284720888816</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>409.401749030468</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>306.5800501384373</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,7 +35419,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,19 +35574,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821548</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>952.8480085222166</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>314.2706063049986</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908048</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35811,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1076.475553859471</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>500.2430848324439</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36358,16 +36358,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318268</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36376,10 +36376,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36759,13 +36759,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36838,19 +36838,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.3468123274661</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>696.4239696145246</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.9464139752274</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.8468454871727</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>137.0929241373665</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.86684891821209</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.9464139752274</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.8468454871727</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>464.5377398436899</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>13.46537880011238</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.86684891821206</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.946413975228</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.53773984369</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>424.3209540304258</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,19 +38017,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>850.6943314763048</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.86684891821182</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.9464139752279</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.8468454871729</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.5377398436901</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>447.1386852747321</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>424.3209540304256</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>351.4296860956383</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>170.3043132612852</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
